--- a/tables/1985/Table 35.xlsx
+++ b/tables/1985/Table 35.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emberu\Desktop\Cassava\1985\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/m_adetuyi_cgiar_org/Documents/WORK/MR PRASAD/2022/7. August/Annual Report/New_Tables/1985/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,26 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
-  <si>
-    <t>Table 35.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cassava mealybug damage and population densities of Epidinacarsis lopezi, its hyperparasitoids, </t>
-  </si>
-  <si>
-    <t>hyperparasitoids, and competitors in southwestern Nigeria during four survey periods.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Total no, of fields</t>
   </si>
   <si>
-    <t>"fields with any lunch top</t>
-  </si>
-  <si>
-    <t>Mean%bunch tops per infested field</t>
-  </si>
-  <si>
     <t>Calculated no. per 100 tips***</t>
   </si>
   <si>
@@ -70,6 +54,67 @@
   </si>
   <si>
     <t>Survey periods</t>
+  </si>
+  <si>
+    <t>"fields with any bunch top</t>
+  </si>
+  <si>
+    <t>Mean % bunch tops per infested field</t>
+  </si>
+  <si>
+    <t>Coccincllids</t>
+  </si>
+  <si>
+    <t>March*</t>
+  </si>
+  <si>
+    <t>Table Name:</t>
+  </si>
+  <si>
+    <t>and competitors in southwestern Nigeria during four survey periods.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cassava mealybug damage and population densities of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Epidinacarsis lopezi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,  hyperparasitoids, </t>
+    </r>
+  </si>
+  <si>
+    <t>Foot Note:</t>
+  </si>
+  <si>
+    <t>*&gt;100 km distance from release site: almost no E. lopezi yel.</t>
+  </si>
+  <si>
+    <t>&lt; 100 km distance from release site: E. lopezi in 82.9% of all fields.</t>
+  </si>
+  <si>
+    <t>** E.lopezi present in most fields.</t>
+  </si>
+  <si>
+    <t>***Calculated as insects per bunch top x% fields with this insect x menn % bunch tops per fields x% fields with CM x 100</t>
   </si>
 </sst>
 </file>
@@ -79,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +133,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -112,20 +174,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,215 +633,552 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="B1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18">
         <v>1983</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18">
         <v>1984</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>112</v>
+      </c>
+      <c r="D7" s="2">
+        <v>154</v>
+      </c>
+      <c r="E7" s="2">
+        <v>115</v>
+      </c>
+      <c r="F7" s="3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B8" s="5">
+        <v>85.2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>99.1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>53.3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>87</v>
+      </c>
+      <c r="F8" s="7">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B9" s="5">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="C9" s="5">
+        <v>93.4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>26.9</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C11" s="5">
+        <v>125.8</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="E11" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>88.6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E12" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>112</v>
-      </c>
-      <c r="D5">
-        <v>154</v>
-      </c>
-      <c r="E5">
-        <v>115</v>
-      </c>
-      <c r="F5">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B13" s="6">
+        <v>191</v>
+      </c>
+      <c r="C13" s="5">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E13" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>85.2</v>
-      </c>
-      <c r="C6">
-        <v>99.1</v>
-      </c>
-      <c r="D6">
-        <v>53.3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>87</v>
-      </c>
-      <c r="F6">
-        <v>53.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="C7">
-        <v>93.4</v>
-      </c>
-      <c r="D7">
-        <v>6.3</v>
-      </c>
-      <c r="E7">
-        <v>26.9</v>
-      </c>
-      <c r="F7">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C9">
-        <v>125.8</v>
-      </c>
-      <c r="D9">
-        <v>6.9</v>
-      </c>
-      <c r="E9">
-        <v>19.8</v>
-      </c>
-      <c r="F9">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>88.6</v>
-      </c>
-      <c r="D10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E10">
-        <v>7.9</v>
-      </c>
-      <c r="F10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>191</v>
-      </c>
-      <c r="C11">
-        <v>160.30000000000001</v>
-      </c>
-      <c r="D11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E11">
-        <v>13.1</v>
-      </c>
-      <c r="F11">
+      <c r="B14" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>10.1</v>
+      </c>
+      <c r="D14" s="10">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>12.2</v>
-      </c>
-      <c r="C12">
-        <v>10.1</v>
-      </c>
-      <c r="D12">
+      <c r="E14" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="F14" s="11">
         <v>0.3</v>
       </c>
-      <c r="E12">
-        <v>5.5</v>
-      </c>
-      <c r="F12">
-        <v>0.3</v>
-      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100284A27838130D149A2783A40AB43BA83" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bac4f5e4b6cdcb97fbf92ed416088beb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1ef7e49f-bd9c-470c-bea7-6795de71c18b" xmlns:ns4="1ce501d2-3302-407b-b8e4-287cbb5596d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b7d79c94ab8e42cd9b5996806927073" ns3:_="" ns4:_="">
+    <xsd:import namespace="1ef7e49f-bd9c-470c-bea7-6795de71c18b"/>
+    <xsd:import namespace="1ce501d2-3302-407b-b8e4-287cbb5596d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1ef7e49f-bd9c-470c-bea7-6795de71c18b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1ce501d2-3302-407b-b8e4-287cbb5596d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="21" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4438431-DBA0-43A2-807E-5C5BB39E444B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1ef7e49f-bd9c-470c-bea7-6795de71c18b"/>
+    <ds:schemaRef ds:uri="1ce501d2-3302-407b-b8e4-287cbb5596d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9920E8BE-DCF7-4E10-9F23-B60F599B1704}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9972F870-E7A5-4C1F-ADB0-82928414BF7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1ce501d2-3302-407b-b8e4-287cbb5596d3"/>
+    <ds:schemaRef ds:uri="1ef7e49f-bd9c-470c-bea7-6795de71c18b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>